--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3962334.661175971</v>
+        <v>3955317.646284259</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>396.397036592699</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>12.77609278441097</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>157.0421379743139</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>15.57897922163638</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.983388191319386</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>96.36163317610219</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>213.6743229269902</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28.5103304121433</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>116.8645225501838</v>
       </c>
       <c r="U13" t="n">
-        <v>65.22269519536201</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>266.6366757057827</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>43.70733080350629</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>51.44029960352478</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.70733080350632</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>80.04606869856578</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>115.3907386688443</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>17.13387053928689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>215.6214853475421</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
-        <v>247.2869712093626</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>50.58981020589794</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>113.9024113853015</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.08070321196</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1251.118186271549</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1251.118186271549</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>865.3299336733044</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>454.3440288836968</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2684.243946791545</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2684.243946791545</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2684.243946791545</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2684.243946791545</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1580.775345511217</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4606,13 +4606,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>530.7441767280769</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>712.3926415583167</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685519</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>73.91021233765171</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>59.98680827624262</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>59.98680827624262</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>517.6822058285748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>512.2963347852319</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>512.2963347852319</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>512.2963347852319</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>699.3306706588145</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011336</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1296.555866665166</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>677.4616523829102</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>677.4616523829102</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1380.87129828499</v>
       </c>
       <c r="U13" t="n">
-        <v>898.2542315264403</v>
+        <v>1380.87129828499</v>
       </c>
       <c r="V13" t="n">
-        <v>898.2542315264403</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="W13" t="n">
-        <v>898.2542315264403</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X13" t="n">
-        <v>898.2542315264403</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y13" t="n">
-        <v>677.4616523829102</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>582.1916992613344</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1196.088769018223</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1029.666285013068</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1029.666285013068</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.666285013068</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5524,19 +5524,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>291.7839189057833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>291.7839189057833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>291.7839189057833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169051</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>330.8254548799445</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>592.8217113586345</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397.7517393246783</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
         <v>247.6350999123426</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1454.767451564462</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1454.767451564462</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1230.982036353967</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>941.8533975675258</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>687.168909361639</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W28" t="n">
-        <v>397.7517393246783</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X28" t="n">
-        <v>397.7517393246783</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y28" t="n">
-        <v>397.7517393246783</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1182.439958787753</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1182.439958787753</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1182.439958787753</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>893.0227887507926</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>893.0227887507926</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.0227887507926</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>1298.996260473455</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1281.689320534781</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>553.0935746802515</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1249.131451154506</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>994.4469629486189</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>994.4469629486189</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>766.4574120506015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7453,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.13096396222</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X43" t="n">
-        <v>965.1414130642022</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.3488339206721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>983.6595875400524</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>983.6595875400524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>983.6595875400524</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.8670083965222</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.6414676374722</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>171.2966883299256</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720727</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.73797368291355</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>18.73797368291326</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>76.43196988338514</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>104.6830385082055</v>
       </c>
       <c r="U13" t="n">
-        <v>221.0146572032153</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>19.60067669279465</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>122.7862376598713</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>174.2693557855124</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.25702160028646</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>172.0915746252622</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>106.1568223895449</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.5757848497503</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>10.088170041495</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
-        <v>38.95038118921477</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>235.9331881306931</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>138.2352319385265</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.309476629</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="F2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="G2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="H2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="H2" t="n">
-        <v>742955.2135016468</v>
-      </c>
       <c r="I2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="J2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>742955.2135016471</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016468</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26438,7 +26438,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,7 +26447,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340954</v>
+        <v>-58470.14369340937</v>
       </c>
       <c r="C6" t="n">
-        <v>531497.735521135</v>
+        <v>531497.7355211352</v>
       </c>
       <c r="D6" t="n">
-        <v>531497.7355211353</v>
+        <v>531497.7355211349</v>
       </c>
       <c r="E6" t="n">
-        <v>103633.2434891636</v>
+        <v>102658.6522294418</v>
       </c>
       <c r="F6" t="n">
-        <v>628793.2799660598</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="G6" t="n">
-        <v>628793.2799660601</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="H6" t="n">
-        <v>628793.2799660595</v>
+        <v>627818.6887063384</v>
       </c>
       <c r="I6" t="n">
-        <v>628793.2799660601</v>
+        <v>627818.6887063384</v>
       </c>
       <c r="J6" t="n">
-        <v>452370.0607734669</v>
+        <v>451395.4695137453</v>
       </c>
       <c r="K6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="L6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="M6" t="n">
-        <v>493992.2647322227</v>
+        <v>493017.6734725012</v>
       </c>
       <c r="N6" t="n">
-        <v>628793.2799660595</v>
+        <v>627818.6887063385</v>
       </c>
       <c r="O6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063383</v>
       </c>
       <c r="P6" t="n">
-        <v>628793.27996606</v>
+        <v>627818.6887063382</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.921966200080314e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.38713342809598</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>41.70230979040074</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>69.82361682150315</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>208.2307537966936</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>203.0056741304584</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>145.9479280535419</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>273.3694675023668</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>11.36078253109403</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0743229399515</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.058142539107096e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>321.8721269178649</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.7510064679877</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>267.9956786389376</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>283.5253848149098</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3955317.646284259</v>
+        <v>3960256.909133292</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>389.0396295043333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>12.77609278441097</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="5">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.57897922163638</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>96.36163317610219</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.5103304121433</v>
+        <v>28.51033041214364</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>96.06414922294039</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>116.8645225501838</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>284.1113436488116</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>21.86696197154571</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>80.04606869856578</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051976</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>211.2541671901477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2684.243946791545</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2684.243946791545</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2684.243946791545</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2684.243946791545</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.181059447974</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.41240417786</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1626.94664591678</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1626.94664591678</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.7441767280769</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.3926415583167</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4792,58 +4792,58 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285748</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
         <v>348.7460229006679</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3306706588145</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,16 +5068,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1380.87129828499</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1380.87129828499</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1126.186810079103</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>836.769640042142</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X13" t="n">
-        <v>836.769640042142</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,13 +6165,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1382.222354598086</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>415.8104215925219</v>
+        <v>868.4856756861158</v>
       </c>
       <c r="C28" t="n">
-        <v>415.8104215925219</v>
+        <v>699.5494927582089</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>549.4328533458731</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>705.2275916294825</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>415.8104215925219</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X28" t="n">
-        <v>415.8104215925219</v>
+        <v>1270.926719659886</v>
       </c>
       <c r="Y28" t="n">
-        <v>415.8104215925219</v>
+        <v>1050.134140516356</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,16 +6460,16 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6663,10 +6663,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6697,34 +6697,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7016,13 +7016,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7362,13 +7362,13 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,25 +7824,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.6414676374722</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711656</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>71.18267187568745</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>104.6830385082055</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.126008749765788</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>124.5670006750235</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>172.0915746252622</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="11">
@@ -26316,16 +26316,16 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016468</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016471</v>
@@ -26334,28 +26334,28 @@
         <v>742955.2135016473</v>
       </c>
       <c r="I2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016468</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="J2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>742955.2135016473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016475</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26401,7 +26401,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26441,16 +26441,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340937</v>
+        <v>-58470.14369340948</v>
       </c>
       <c r="C6" t="n">
-        <v>531497.7355211352</v>
+        <v>531497.7355211353</v>
       </c>
       <c r="D6" t="n">
-        <v>531497.7355211349</v>
+        <v>531497.735521135</v>
       </c>
       <c r="E6" t="n">
-        <v>102658.6522294418</v>
+        <v>103535.7843631914</v>
       </c>
       <c r="F6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.8208400874</v>
       </c>
       <c r="G6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.8208400877</v>
       </c>
       <c r="H6" t="n">
-        <v>627818.6887063384</v>
+        <v>628695.820840088</v>
       </c>
       <c r="I6" t="n">
-        <v>627818.6887063384</v>
+        <v>628695.8208400877</v>
       </c>
       <c r="J6" t="n">
-        <v>451395.4695137453</v>
+        <v>452272.6016474945</v>
       </c>
       <c r="K6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.8208400881</v>
       </c>
       <c r="L6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.8208400878</v>
       </c>
       <c r="M6" t="n">
-        <v>493017.6734725012</v>
+        <v>493894.8056062506</v>
       </c>
       <c r="N6" t="n">
-        <v>627818.6887063385</v>
+        <v>628695.8208400873</v>
       </c>
       <c r="O6" t="n">
-        <v>627818.6887063383</v>
+        <v>628695.820840088</v>
       </c>
       <c r="P6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.820840088</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.921966200080314e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>24.74454051646165</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.70230979040074</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="5">
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.0056741304584</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>273.3694675023668</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.0743229399515</v>
+        <v>190.0743229399511</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.058142539107096e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
